--- a/old_database/crypto/s2cDNASample/s2cDNASample_1573.xlsx
+++ b/old_database/crypto/s2cDNASample/s2cDNASample_1573.xlsx
@@ -37,7 +37,7 @@
     <t>05.12.15</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_1573</t>
   </si>
 </sst>
 </file>

--- a/old_database/crypto/s2cDNASample/s2cDNASample_1573.xlsx
+++ b/old_database/crypto/s2cDNASample/s2cDNASample_1573.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="10">
   <si>
     <t xml:space="preserve">s1cDNADate</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Retrofitted_1573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SuperScriptIII</t>
   </si>
 </sst>
 </file>
@@ -56,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -86,19 +89,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,12 +149,12 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -192,7 +182,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -218,7 +210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
@@ -237,9 +229,11 @@
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -258,9 +252,11 @@
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
@@ -279,9 +275,11 @@
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
@@ -300,9 +298,11 @@
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
@@ -321,9 +321,11 @@
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>7</v>
       </c>
@@ -342,9 +344,11 @@
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>7</v>
       </c>
@@ -363,9 +367,11 @@
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>7</v>
       </c>
@@ -384,9 +390,11 @@
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>7</v>
       </c>
@@ -405,9 +413,11 @@
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>7</v>
       </c>
@@ -426,9 +436,11 @@
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>7</v>
       </c>
@@ -447,9 +459,11 @@
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>7</v>
       </c>
@@ -468,9 +482,11 @@
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>7</v>
       </c>
@@ -489,9 +505,11 @@
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>7</v>
       </c>
@@ -510,9 +528,11 @@
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>7</v>
       </c>
@@ -531,9 +551,11 @@
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>7</v>
       </c>
@@ -552,9 +574,11 @@
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>7</v>
       </c>
@@ -573,9 +597,11 @@
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>7</v>
       </c>
@@ -594,9 +620,11 @@
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>7</v>
       </c>
@@ -615,9 +643,11 @@
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>7</v>
       </c>
@@ -636,9 +666,11 @@
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>7</v>
       </c>
@@ -657,7 +689,9 @@
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
